--- a/resource/ExcelTables/MapArea.xlsx
+++ b/resource/ExcelTables/MapArea.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projecty\trunk\Tables\datasource\ExcelTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN\ProjectY\trunk\Tables\datasource\ExcelTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D9D359-5F27-4C37-8E6B-44AC7D5A4C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC892DF-B5CD-49D2-9297-EDA86E4DFADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12437" yWindow="4697" windowWidth="21994" windowHeight="10809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31740" yWindow="3040" windowWidth="26350" windowHeight="16150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="区块" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="预置建筑" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -55,52 +54,62 @@
     <t>可放置Layer</t>
   </si>
   <si>
+    <t>area_name</t>
+  </si>
+  <si>
+    <t>area_type</t>
+  </si>
+  <si>
+    <t>start_pos</t>
+  </si>
+  <si>
+    <t>end_pos</t>
+  </si>
+  <si>
+    <t>餐厅解锁区块1</t>
+  </si>
+  <si>
+    <t>-30,29</t>
+  </si>
+  <si>
+    <t>9,-10</t>
+  </si>
+  <si>
+    <t>餐厅解锁区块2</t>
+  </si>
+  <si>
+    <t>-30,-11</t>
+  </si>
+  <si>
+    <t>9,-30</t>
+  </si>
+  <si>
+    <t>餐厅解锁区块3</t>
+  </si>
+  <si>
+    <t>10,29</t>
+  </si>
+  <si>
+    <t>29,-30</t>
+  </si>
+  <si>
+    <t>can_place_layer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ground_indoor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mappreset_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>area_id</t>
-  </si>
-  <si>
-    <t>area_name</t>
-  </si>
-  <si>
-    <t>area_type</t>
-  </si>
-  <si>
-    <t>start_pos</t>
-  </si>
-  <si>
-    <t>end_pos</t>
-  </si>
-  <si>
-    <t>餐厅解锁区块1</t>
-  </si>
-  <si>
-    <t>-30,29</t>
-  </si>
-  <si>
-    <t>9,-10</t>
-  </si>
-  <si>
-    <t>地板层</t>
-  </si>
-  <si>
-    <t>餐厅解锁区块2</t>
-  </si>
-  <si>
-    <t>-30,-11</t>
-  </si>
-  <si>
-    <t>9,-30</t>
-  </si>
-  <si>
-    <t>餐厅解锁区块3</t>
-  </si>
-  <si>
-    <t>10,29</t>
-  </si>
-  <si>
-    <t>29,-30</t>
-  </si>
-  <si>
-    <t>can_place_layer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -132,7 +141,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +151,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -175,7 +196,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -188,14 +209,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,24 +502,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.15234375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.23046875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.921875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.61328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" style="2" customWidth="1"/>
     <col min="6" max="6" width="84" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.921875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.90625" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,87 +539,87 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>200001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>200002</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>16</v>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>200003</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -591,7 +627,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -599,7 +635,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -607,7 +643,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -615,7 +651,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -623,7 +659,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -631,7 +667,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -639,7 +675,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -647,7 +683,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -655,7 +691,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -663,7 +699,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -671,7 +707,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -679,7 +715,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -687,7 +723,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -695,7 +731,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -703,7 +739,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -711,7 +747,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -719,7 +755,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -727,7 +763,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -735,7 +771,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -743,7 +779,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -751,7 +787,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -767,29 +803,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3686632C-F516-44BD-BD8D-C372EC13548F}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>